--- a/results/mod3.antielite_salience.slopes.eff.MN.xlsx
+++ b/results/mod3.antielite_salience.slopes.eff.MN.xlsx
@@ -419,25 +419,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0255158848981462</v>
+        <v>-0.0255142663476452</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0398431953705152</v>
+        <v>0.0398430460773182</v>
       </c>
       <c r="E2" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.103607112853349</v>
+        <v>-0.103605201693559</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0525753430570567</v>
+        <v>0.0525766689982684</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.640407594342406</v>
+        <v>-0.640369370808974</v>
       </c>
       <c r="I2" t="n">
-        <v>0.521907646872828</v>
+        <v>0.521932490749917</v>
       </c>
     </row>
     <row r="3">
@@ -448,25 +448,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.312542164154783</v>
+        <v>0.312536605374761</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0915535434652534</v>
+        <v>0.091553141736457</v>
       </c>
       <c r="E3" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>0.133100516305864</v>
+        <v>0.133095744899815</v>
       </c>
       <c r="G3" t="n">
-        <v>0.491983812003702</v>
+        <v>0.491977465849707</v>
       </c>
       <c r="H3" t="n">
-        <v>3.41376370946691</v>
+        <v>3.41371797239272</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000640721181493439</v>
+        <v>0.00064082874268218</v>
       </c>
     </row>
     <row r="4">
@@ -477,25 +477,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.178649228913752</v>
+        <v>-0.178647245505994</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0452381762641261</v>
+        <v>0.04523804236322</v>
       </c>
       <c r="E4" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.267314425117714</v>
+        <v>-0.267312179269002</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0899840327097903</v>
+        <v>-0.0899823117429856</v>
       </c>
       <c r="H4" t="n">
-        <v>-3.94908114488738</v>
+        <v>-3.94904899004295</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0000784517562385297</v>
+        <v>0.0000784622940469834</v>
       </c>
     </row>
     <row r="5">
@@ -506,25 +506,25 @@
         <v>-2.37654851792496</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.108377050342885</v>
+        <v>-0.108375093521122</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0351738396739255</v>
+        <v>0.0351736836949145</v>
       </c>
       <c r="E5" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.177316509301765</v>
+        <v>-0.177314246766758</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.039437591384005</v>
+        <v>-0.0394359402754856</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.08118338366185</v>
+        <v>-3.08114141416444</v>
       </c>
       <c r="I5" t="n">
-        <v>0.00206179622252266</v>
+        <v>0.0020620868743743</v>
       </c>
     </row>
     <row r="6">
@@ -535,25 +535,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0143595420654055</v>
+        <v>0.0143596600986321</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0398004863674425</v>
+        <v>0.0398003405936328</v>
       </c>
       <c r="E6" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0636479777819591</v>
+        <v>-0.0636475740373156</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0923670619127701</v>
+        <v>0.0923668942345798</v>
       </c>
       <c r="H6" t="n">
-        <v>0.360788105271796</v>
+        <v>0.360792392337702</v>
       </c>
       <c r="I6" t="n">
-        <v>0.718257855384809</v>
+        <v>0.718254650338925</v>
       </c>
     </row>
     <row r="7">
@@ -564,25 +564,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0147348642112515</v>
+        <v>0.0147345559292022</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0879699323881659</v>
+        <v>0.0879695002427339</v>
       </c>
       <c r="E7" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.157683034991977</v>
+        <v>-0.157682496284544</v>
       </c>
       <c r="G7" t="n">
-        <v>0.18715276341448</v>
+        <v>0.187151608142948</v>
       </c>
       <c r="H7" t="n">
-        <v>0.167498869343608</v>
+        <v>0.167496187753087</v>
       </c>
       <c r="I7" t="n">
-        <v>0.866977537095281</v>
+        <v>0.866979646890801</v>
       </c>
     </row>
     <row r="8">
@@ -593,25 +593,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0296769211671755</v>
+        <v>-0.0296766514819991</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0373104168311359</v>
+        <v>0.0373102866909497</v>
       </c>
       <c r="E8" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.102803994404379</v>
+        <v>-0.102803469649125</v>
       </c>
       <c r="G8" t="n">
-        <v>0.043450152070028</v>
+        <v>0.0434501666851264</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.795405779074807</v>
+        <v>-0.795401325318622</v>
       </c>
       <c r="I8" t="n">
-        <v>0.426377499347235</v>
+        <v>0.426380089257087</v>
       </c>
     </row>
     <row r="9">
@@ -622,25 +622,25 @@
         <v>0.0653290276877109</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000582514890518505</v>
+        <v>0.000582435454164777</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0323674552585678</v>
+        <v>0.0323672999618573</v>
       </c>
       <c r="E9" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0628565316874859</v>
+        <v>-0.0628563067478803</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0640215614685229</v>
+        <v>0.0640211776562098</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0179969319758096</v>
+        <v>0.0179945641079465</v>
       </c>
       <c r="I9" t="n">
-        <v>0.98564130094432</v>
+        <v>0.985643189923636</v>
       </c>
     </row>
     <row r="10">
@@ -651,25 +651,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0542349690289571</v>
+        <v>0.0542335865449095</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0786497705513084</v>
+        <v>0.0786494309591747</v>
       </c>
       <c r="E10" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0999157486439462</v>
+        <v>-0.0999164655396424</v>
       </c>
       <c r="G10" t="n">
-        <v>0.208385686701861</v>
+        <v>0.208383638629461</v>
       </c>
       <c r="H10" t="n">
-        <v>0.689575680244053</v>
+        <v>0.68956107988958</v>
       </c>
       <c r="I10" t="n">
-        <v>0.490461065535031</v>
+        <v>0.490470249896334</v>
       </c>
     </row>
     <row r="11">
@@ -680,25 +680,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.283072435732281</v>
+        <v>-0.283067493516357</v>
       </c>
       <c r="D11" t="n">
-        <v>0.171374787370254</v>
+        <v>0.171373753913667</v>
       </c>
       <c r="E11" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.618960846836188</v>
+        <v>-0.618953879082573</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0528159753716271</v>
+        <v>0.0528188920498601</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.65177410327404</v>
+        <v>-1.65175522535941</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0985806097547992</v>
+        <v>0.0985844596198459</v>
       </c>
     </row>
     <row r="12">
@@ -709,25 +709,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C12" t="n">
-        <v>0.119295386579401</v>
+        <v>0.119293942541996</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0644246101415596</v>
+        <v>0.0644242782956572</v>
       </c>
       <c r="E12" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.00697452901608955</v>
+        <v>-0.00697532264747776</v>
       </c>
       <c r="G12" t="n">
-        <v>0.245565302174892</v>
+        <v>0.245563207731469</v>
       </c>
       <c r="H12" t="n">
-        <v>1.8517052150921</v>
+        <v>1.85169233863249</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0640681647424879</v>
+        <v>0.0640700147973151</v>
       </c>
     </row>
     <row r="13">
@@ -738,25 +738,25 @@
         <v>2.50720657330038</v>
       </c>
       <c r="C13" t="n">
-        <v>0.109542080123922</v>
+        <v>0.109539964429451</v>
       </c>
       <c r="D13" t="n">
-        <v>0.061435390827147</v>
+        <v>0.0614350371581481</v>
       </c>
       <c r="E13" t="e">
         <v>#NUM!</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0108690732734283</v>
+        <v>-0.0108704957893988</v>
       </c>
       <c r="G13" t="n">
-        <v>0.229953233521273</v>
+        <v>0.229950424648302</v>
       </c>
       <c r="H13" t="n">
-        <v>1.78304522277928</v>
+        <v>1.78302104949444</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0745789421120925</v>
+        <v>0.0745828768849475</v>
       </c>
     </row>
   </sheetData>
